--- a/data/WAcities.xlsx
+++ b/data/WAcities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webdir\575Lab1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CADCA3-1070-47B1-87DD-AE8FAA748D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463380A9-0E2C-4506-B5E5-481F7409F84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="540" windowWidth="15660" windowHeight="11820" xr2:uid="{9BA82734-5F7E-482F-8041-E3F7769FCBB4}"/>
+    <workbookView xWindow="144" yWindow="72" windowWidth="19008" windowHeight="11820" xr2:uid="{9BA82734-5F7E-482F-8041-E3F7769FCBB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>City</t>
   </si>
@@ -574,6 +574,15 @@
   </si>
   <si>
     <t>pop2000</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>pop2030</t>
+  </si>
+  <si>
+    <t>pop2050</t>
   </si>
 </sst>
 </file>
@@ -3510,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06953B3-8A23-46C0-A66C-CDBB51174588}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3522,7 +3531,7 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3556,8 +3565,17 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -3593,8 +3611,20 @@
       <c r="K2">
         <v>564092</v>
       </c>
+      <c r="L2">
+        <f>(D2-K2)/21</f>
+        <v>10117.285714285714</v>
+      </c>
+      <c r="M2">
+        <f>D2+L2*9</f>
+        <v>867610.57142857136</v>
+      </c>
+      <c r="N2">
+        <f>D2+L2*29</f>
+        <v>1069956.2857142857</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
@@ -3630,8 +3660,20 @@
       <c r="K3">
         <v>196917</v>
       </c>
+      <c r="L3">
+        <f>(D3-K3)/21</f>
+        <v>1460.0952380952381</v>
+      </c>
+      <c r="M3">
+        <f>D3+L3*9</f>
+        <v>240719.85714285713</v>
+      </c>
+      <c r="N3">
+        <f>D3+L3*29</f>
+        <v>269921.76190476189</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
@@ -3667,8 +3709,20 @@
       <c r="K4">
         <v>193878</v>
       </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L17" si="0">(D4-K4)/21</f>
+        <v>1303.8571428571429</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M17" si="1">D4+L4*9</f>
+        <v>232993.71428571429</v>
+      </c>
+      <c r="N4">
+        <f>D4+L4*29</f>
+        <v>259070.85714285716</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
@@ -3704,8 +3758,20 @@
       <c r="K5">
         <v>146574</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1954.3333333333333</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>205204</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N17" si="2">D5+L5*29</f>
+        <v>244290.66666666666</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
@@ -3741,8 +3807,20 @@
       <c r="K6">
         <v>112480</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1804</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>166600</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>202680</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
@@ -3778,8 +3856,20 @@
       <c r="K7">
         <v>80609</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>2518.0952380952381</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>156151.85714285713</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>206513.76190476189</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
@@ -3815,8 +3905,20 @@
       <c r="K8">
         <v>96294</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>759.76190476190482</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>119086.85714285714</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>134282.09523809524</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
@@ -3852,8 +3954,20 @@
       <c r="K9">
         <v>51485</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>2390.1904761904761</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>123190.71428571429</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>170994.52380952379</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
@@ -3889,8 +4003,20 @@
       <c r="K10">
         <v>80869</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1128.3333333333333</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>114719</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>137285.66666666666</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
@@ -3926,8 +4052,20 @@
       <c r="K11">
         <v>85173</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>487.71428571428572</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>99804.428571428565</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>109558.71428571429</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
@@ -3963,8 +4101,20 @@
       <c r="K12">
         <v>83469</v>
       </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>492.66666666666669</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>98249</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>108102.33333333333</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
@@ -4000,8 +4150,20 @@
       <c r="K13">
         <v>45026</v>
       </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>2580.2857142857142</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>122434.57142857142</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>174040.28571428571</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="e" vm="37">
         <v>#VALUE!</v>
       </c>
@@ -4037,8 +4199,20 @@
       <c r="K14">
         <v>67817</v>
       </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1342.7142857142858</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>108098.42857142858</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>134952.71428571429</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="e" vm="40">
         <v>#VALUE!</v>
       </c>
@@ -4074,8 +4248,20 @@
       <c r="K15">
         <v>59424</v>
       </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1344.047619047619</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>99745.428571428565</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>126626.38095238095</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="e" vm="43">
         <v>#VALUE!</v>
       </c>
@@ -4111,8 +4297,20 @@
       <c r="K16">
         <v>45638</v>
       </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1679.8571428571429</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>96033.71428571429</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>129630.85714285714</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
@@ -4147,6 +4345,18 @@
       </c>
       <c r="K17">
         <v>55472</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1206.7619047619048</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>91674.857142857145</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>115810.09523809524</v>
       </c>
     </row>
   </sheetData>
